--- a/Output_Backtest/Mean_Variance_cumulative_returns.xlsx
+++ b/Output_Backtest/Mean_Variance_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>1.008232647352938</v>
+        <v>1.008232512791605</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9815793798610041</v>
+        <v>0.9815791595096633</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9241236454386532</v>
+        <v>0.9241235015942357</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9190341384363864</v>
+        <v>0.9190339604422262</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9846875041004191</v>
+        <v>0.9846872142287899</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9737552396360274</v>
+        <v>0.9737548756395544</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>0.9974770601887667</v>
+        <v>0.9974768004897433</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.006016299802359</v>
+        <v>1.00601717168764</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.050475236200018</v>
+        <v>1.050476332178828</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.038759229845598</v>
+        <v>1.038760052269871</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.035251849103795</v>
+        <v>1.03525289588374</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>0.9974951011282035</v>
+        <v>0.9974961512727111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9728804619538414</v>
+        <v>0.9728814156260396</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.9941328858437816</v>
+        <v>0.9941340216198974</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.007531825427339</v>
+        <v>1.007532913324792</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.041530715399479</v>
+        <v>1.041531659361879</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.040309324009546</v>
+        <v>1.040310279333959</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.053621387163511</v>
+        <v>1.05362249460453</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.063426706745052</v>
+        <v>1.063428202869203</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.067984894343044</v>
+        <v>1.067986326488423</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.092225665262122</v>
+        <v>1.092226853608218</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.092082783837666</v>
+        <v>1.092084186979593</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.125502335566749</v>
+        <v>1.125503585467833</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.139643768773606</v>
+        <v>1.139644986527083</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.171329693572335</v>
+        <v>1.171330931448866</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.171508260339907</v>
+        <v>1.171509677994168</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.236623816037164</v>
+        <v>1.236625203413688</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.201010266773254</v>
+        <v>1.201011610892599</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.180986173757808</v>
+        <v>1.180987684684331</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.166322518444295</v>
+        <v>1.16632382668655</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.216631623702036</v>
+        <v>1.216634322661197</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.227224549894316</v>
+        <v>1.227227317684065</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.266120184108089</v>
+        <v>1.2661230911631</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.306281616442685</v>
+        <v>1.306284453902099</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.291099297052629</v>
+        <v>1.291101917560348</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.252996090185915</v>
+        <v>1.252998945132691</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.25713804714631</v>
+        <v>1.257140862669353</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.177162863202885</v>
+        <v>1.177165771333285</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.320411413991806</v>
+        <v>1.320414565323967</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.313669687657224</v>
+        <v>1.313672813547287</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.294312150383168</v>
+        <v>1.294315240231193</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.330241686977066</v>
+        <v>1.330244949866087</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.259670293015228</v>
+        <v>1.25967345409172</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.346401793905081</v>
+        <v>1.346405391284691</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.371404880888488</v>
+        <v>1.371408350993092</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.321593247101387</v>
+        <v>1.321596822228741</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.344198791519225</v>
+        <v>1.344202144661093</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.390403549580508</v>
+        <v>1.390407204968487</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.434694642606872</v>
+        <v>1.434698360379692</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.495099480297699</v>
+        <v>1.495103235660395</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.473252676366692</v>
+        <v>1.473256252188981</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.362245565703481</v>
+        <v>1.362249022417384</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.308376223612898</v>
+        <v>1.308379403270391</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.389740600778552</v>
+        <v>1.389744198190864</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.428550297584109</v>
+        <v>1.428553997153796</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.470448988318741</v>
+        <v>1.47045300617098</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.574927325162834</v>
+        <v>1.574931687065609</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.61276634913796</v>
+        <v>1.612770445146287</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.53970838042552</v>
+        <v>1.539712308484545</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.504531268315802</v>
+        <v>1.504535003032077</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.558191305164397</v>
+        <v>1.558195282056441</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.615515508606888</v>
+        <v>1.61551959936957</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.587389213508169</v>
+        <v>1.587393282819084</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.618755001195965</v>
+        <v>1.618759283194725</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.662682985233636</v>
+        <v>1.662687695403801</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.745728172031622</v>
+        <v>1.745733305203529</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.744476656033432</v>
+        <v>1.744481960500025</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.809666357188753</v>
+        <v>1.809671565235508</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.772466552159306</v>
+        <v>1.772471678471239</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.823019825799382</v>
+        <v>1.823025196884546</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.738312765975737</v>
+        <v>1.738317855284776</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.822177727482102</v>
+        <v>1.822183068899839</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.791712487095251</v>
+        <v>1.791717847284081</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.832209085496686</v>
+        <v>1.832214631202801</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.707659139182868</v>
+        <v>1.707664277667846</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.644638923325657</v>
+        <v>1.644643863239135</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.708185628833174</v>
+        <v>1.708190740005728</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.554908212657882</v>
+        <v>1.554913115132732</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.523123234644915</v>
+        <v>1.523127046538409</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.393543263519534</v>
+        <v>1.393546101547402</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.458611990747573</v>
+        <v>1.45861460516893</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.375207941441824</v>
+        <v>1.375210379861551</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.19880702046828</v>
+        <v>1.198809178175052</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.285800381761397</v>
+        <v>1.28580207875768</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.333072276192263</v>
+        <v>1.333073482079934</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.255248221584034</v>
+        <v>1.25524725464011</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.347013404871876</v>
+        <v>1.347012380813311</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.317458385471466</v>
+        <v>1.317457478369534</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.337085241133319</v>
+        <v>1.337084375847166</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.336312186776123</v>
+        <v>1.336311298121525</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.327251105636115</v>
+        <v>1.327250391830382</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.410037787899189</v>
+        <v>1.41003727847385</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.510485991399443</v>
+        <v>1.510485470397871</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.493798362270204</v>
+        <v>1.493797910718195</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.475316459283884</v>
+        <v>1.475315985671187</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.409842862383896</v>
+        <v>1.409842438903689</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.497029197267478</v>
+        <v>1.497028800261754</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.532275497049665</v>
+        <v>1.532275070970998</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.568191147732606</v>
+        <v>1.568190711544485</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.634213605507718</v>
+        <v>1.634213119376509</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.687371423461292</v>
+        <v>1.687370912709157</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.651792301064934</v>
+        <v>1.651791936806994</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.675615643897703</v>
+        <v>1.675615276858481</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.757026442738054</v>
+        <v>1.75702605786601</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.765644579438504</v>
+        <v>1.76564419267868</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.763533288942353</v>
+        <v>1.763532902645002</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.776574354916026</v>
+        <v>1.776573965762064</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.814061800955362</v>
+        <v>1.814061378664547</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.764429883589413</v>
+        <v>1.764429527043443</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Mean_Variance_cumulative_returns.xlsx
+++ b/Output_Backtest/Mean_Variance_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>1.008232512791605</v>
+        <v>1.008232465651308</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9815791595096633</v>
+        <v>0.98157931503831</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9241235015942357</v>
+        <v>0.9241234779873579</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9190339604422262</v>
+        <v>0.9190339130337624</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9846872142287899</v>
+        <v>0.9846872209949963</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>0.9737548756395544</v>
+        <v>0.9737548838326768</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>0.9974768004897433</v>
+        <v>0.9974768011940657</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.00601717168764</v>
+        <v>1.006016766591927</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.050476332178828</v>
+        <v>1.050475947158844</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.038760052269871</v>
+        <v>1.038759752498026</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.03525289588374</v>
+        <v>1.035252639605825</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>0.9974961512727111</v>
+        <v>0.9974956357506402</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9728814156260396</v>
+        <v>0.9728809017225654</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.9941340216198974</v>
+        <v>0.9941334842811111</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>1.007532913324792</v>
+        <v>1.007532242178348</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>1.041531659361879</v>
+        <v>1.041531000163359</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>1.040310279333959</v>
+        <v>1.040309661446707</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.05362249460453</v>
+        <v>1.05362183702211</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.063428202869203</v>
+        <v>1.063427359522609</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.067986326488423</v>
+        <v>1.067985409630812</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.092226853608218</v>
+        <v>1.092226014935378</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.092084186979593</v>
+        <v>1.092083294787799</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.125503585467833</v>
+        <v>1.125502671617325</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.139644986527083</v>
+        <v>1.139643955534378</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.171330931448866</v>
+        <v>1.171329820537873</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.171509677994168</v>
+        <v>1.171508224747319</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.236625203413688</v>
+        <v>1.236623884647174</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.201011610892599</v>
+        <v>1.201010391401814</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.180987684684331</v>
+        <v>1.180986166875988</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.16632382668655</v>
+        <v>1.166322516456481</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.216634322661197</v>
+        <v>1.216630871058431</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.227227317684065</v>
+        <v>1.227224226825381</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.2661230911631</v>
+        <v>1.266119663807778</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.306284453902099</v>
+        <v>1.306280982957815</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.291101917560348</v>
+        <v>1.291098799368032</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.252998945132691</v>
+        <v>1.252995359114498</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.257140862669353</v>
+        <v>1.257137385607526</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.177165771333285</v>
+        <v>1.177162199675231</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.320414565323967</v>
+        <v>1.32041075491981</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.313672813547287</v>
+        <v>1.313669017193793</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.294315240231193</v>
+        <v>1.294311651791454</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.330244949866087</v>
+        <v>1.330241275301138</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.25967345409172</v>
+        <v>1.259669825748542</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.346405391284691</v>
+        <v>1.34640146224444</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.371408350993092</v>
+        <v>1.371404429796242</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.321596822228741</v>
+        <v>1.321592964228623</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.344202144661093</v>
+        <v>1.344198344186357</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.390407204968487</v>
+        <v>1.39040315724386</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.434698360379692</v>
+        <v>1.434694236933218</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.495103235660395</v>
+        <v>1.495099201373229</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.473256252188981</v>
+        <v>1.473252137563009</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.362249022417384</v>
+        <v>1.362245100261186</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.308379403270391</v>
+        <v>1.308375812864818</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.389744198190864</v>
+        <v>1.389740107665797</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.428553997153796</v>
+        <v>1.428549700721896</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.47045300617098</v>
+        <v>1.470448594785915</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.574931687065609</v>
+        <v>1.574926854963886</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.612770445146287</v>
+        <v>1.612765749687821</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.539712308484545</v>
+        <v>1.539707961006144</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.504535003032077</v>
+        <v>1.504530922966954</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.558195282056441</v>
+        <v>1.558190864105047</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.61551959936957</v>
+        <v>1.615514629814503</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.587393282819084</v>
+        <v>1.587388443971413</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.618759283194725</v>
+        <v>1.618754190520856</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.662687695403801</v>
+        <v>1.662681613620607</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.745733305203529</v>
+        <v>1.745727013216956</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.744481960500025</v>
+        <v>1.744475650219874</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.809671565235508</v>
+        <v>1.809665093363074</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.772471678471239</v>
+        <v>1.772465457690848</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.823025196884546</v>
+        <v>1.823018575551853</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.738317855284776</v>
+        <v>1.738311594870154</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.822183068899839</v>
+        <v>1.822176401997014</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.791717847284081</v>
+        <v>1.791711195394479</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.832214631202801</v>
+        <v>1.832208058461707</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.707664277667846</v>
+        <v>1.707658066764434</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.644643863239135</v>
+        <v>1.644637855844581</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.708190740005728</v>
+        <v>1.708184384082266</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.554913115132732</v>
+        <v>1.554907365132659</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.523127046538409</v>
+        <v>1.523121608745369</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.393546101547402</v>
+        <v>1.393540772455782</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.45861460516893</v>
+        <v>1.458609022365037</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.375210379861551</v>
+        <v>1.375204966871841</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.198809178175052</v>
+        <v>1.198804380696261</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.28580207875768</v>
+        <v>1.285796540248907</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.333073482079934</v>
+        <v>1.333068051799223</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.25524725464011</v>
+        <v>1.255242617370669</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.347012380813311</v>
+        <v>1.347007341182326</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.317457478369534</v>
+        <v>1.317452634271264</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.337084375847166</v>
+        <v>1.337079337211157</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.336311298121525</v>
+        <v>1.3363062737594</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.327250391830382</v>
+        <v>1.327245335593223</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.41003727847385</v>
+        <v>1.410032085792162</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.510485470397871</v>
+        <v>1.510479837516896</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.493797910718195</v>
+        <v>1.493792309227481</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.475315985671187</v>
+        <v>1.475310612344328</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.409842438903689</v>
+        <v>1.40983731472186</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.497028800261754</v>
+        <v>1.497023368962576</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.532275070970998</v>
+        <v>1.532269522687975</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.568190711544485</v>
+        <v>1.568185032039545</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.634213119376509</v>
+        <v>1.63420717074596</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.687370912709157</v>
+        <v>1.687364796742798</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.651791936806994</v>
+        <v>1.651785919711051</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.675615276858481</v>
+        <v>1.6756091735392</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.75702605786601</v>
+        <v>1.757019658013272</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.76564419267868</v>
+        <v>1.765637761434949</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.763532902645002</v>
+        <v>1.763526479091508</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.776573965762064</v>
+        <v>1.776567494707348</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.814061378664547</v>
+        <v>1.814054782813604</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.764429527043443</v>
+        <v>1.795544213825076</v>
       </c>
     </row>
   </sheetData>
